--- a/biology/Médecine/Articulation_acromio-claviculaire/Articulation_acromio-claviculaire.xlsx
+++ b/biology/Médecine/Articulation_acromio-claviculaire/Articulation_acromio-claviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation acromio-claviculaire est l'articulation de la ceinture pectorale qui unit la scapula au niveau de l'acromion à la clavicule.
 </t>
@@ -513,17 +525,131 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Type
-L'articulation acromio-claviculaire est une articulation synoviale plane.
-Surfaces articulaires
-La surface articulaire distale est portée par la scapula : la facette articulaire claviculaire de la scapula située sur l'acromion. C'est une surface plane ovalaire à grand axe horizontal orienté en bas et en dedans.
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation acromio-claviculaire est une articulation synoviale plane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface articulaire distale est portée par la scapula : la facette articulaire claviculaire de la scapula située sur l'acromion. C'est une surface plane ovalaire à grand axe horizontal orienté en bas et en dedans.
 La surface articulaire proximale est portée par la clavicule : la facette acromiale de la clavicule qui répond à la facette articulaire claviculaire de la scapula.
 Dans 60% des cas, les deux facettes articulaires sont séparées par un disque articulaire.
-Variations
-L'orientation de la facette articulaire claviculaire de la scapula est variable, elle est en bas en dedans pour la moitié des individus, mais elle peut être vertical (20% des individus) et parfois en bas et en dehors.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Variations</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orientation de la facette articulaire claviculaire de la scapula est variable, elle est en bas en dedans pour la moitié des individus, mais elle peut être vertical (20% des individus) et parfois en bas et en dehors.
 Et pour 20% des individus, les surfaces ne sont pas congruentes.
-Moyens d'union
-L'articulation acromio-claviculaire est maintenue par une capsule articulaire. Celle-ci est renforcée par des épaississements sur chaque face formant quatre ligaments intrinsèques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'articulation acromio-claviculaire est maintenue par une capsule articulaire. Celle-ci est renforcée par des épaississements sur chaque face formant quatre ligaments intrinsèques :
 le ligament acromio-claviculaire supérieur,
 le ligament acromio-claviculaire inférieur,
 le ligament acromio-claviculaire postérieur,
@@ -534,93 +660,99 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation est vascularisée par les branches de l'artère thoraco-acromiale issue de l'artère axillaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation est innervée par des branches du plexus brachial.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'articulation acromio-claviculaire est une articulation plane à 3 axes :
 axe vertical permettant un mouvement de bâillement limité d'avant en arrière,
@@ -629,34 +761,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_acromio-claviculaire</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxation acromio-claviculaire
-Il existe plusieurs stades de luxation acromio-claviculaire. Différents auteurs ont proposé des classifications. En France Patte a décrit les luxations acromio-claviculaires en 4 stades.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Luxation acromio-claviculaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs stades de luxation acromio-claviculaire. Différents auteurs ont proposé des classifications. En France Patte a décrit les luxations acromio-claviculaires en 4 stades.
 Stade 1 : entorse simple, lésion partielle des ligaments sans instabilité de la clavicule.
 Stade 2 : les ligaments acromio-claviculaires sont distendus mais pas rompus. Discrète mobilité de la clavicule « en touche de piano » (mobilité verticale), sans aucune mobilité antéro-postérieure.
 Stade 3 : luxation acromio-claviculaire complète avec rupture complète des ligaments acromio-claviculaires et coraco-claviculaires. Déformation visible de l'épaule avec saillie importante de l'extrémité externe de la clavicule, que l'on peut réduire pas simple pression (« touche de piano »). Il existe aussi une mobilité antero-postérieure anormale.
